--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00C513-8982-43B8-A84B-E1FF4C591A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36F46D-1035-4050-A220-DC6607066FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>واحد</t>
   </si>
@@ -74,16 +74,26 @@
     <t>مبلغ</t>
   </si>
   <si>
-    <t>1402-5-21</t>
+    <t>علت برداشت</t>
+  </si>
+  <si>
+    <t>مقصد</t>
+  </si>
+  <si>
+    <t>علت</t>
+  </si>
+  <si>
+    <t>واریز موجودی اولیه از طرف اقای نوری</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="174" formatCode="[$-960429]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,13 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,13 +414,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -478,6 +494,24 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>45011</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45037</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45069</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -495,6 +529,24 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>45101</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45101</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45101</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -509,6 +561,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>45034</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45062</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -526,6 +594,24 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>45039</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45069</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45094</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -546,6 +632,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
+      <c r="B11" s="4">
+        <v>45081</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45081</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45119</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45119</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -557,6 +663,20 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
+      <c r="B13" s="4">
+        <v>45046</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -583,6 +703,30 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <v>45102</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45102</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45102</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45102</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45102</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45102</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -609,11 +753,30 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="B17" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45150</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45150</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45150</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45150</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45150</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -645,11 +808,24 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="4">
+        <v>45034</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45045</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45078</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -676,11 +852,22 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="4">
+        <v>45021</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45067</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
@@ -710,11 +897,24 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="B23" s="4">
+        <v>45031</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45061</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45091</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -753,17 +953,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -772,31 +972,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5C760-8C03-4895-BDE0-84FC05787A5E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45150</v>
       </c>
       <c r="B2" s="2">
         <v>72966810</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -806,12 +1014,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1F0AF-C881-42DD-8134-CAD3591AFCF1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36F46D-1035-4050-A220-DC6607066FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A13D6F-0555-45B1-9A0A-085C6A6A6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
-    <sheet name="واریز به حساب" sheetId="2" r:id="rId2"/>
-    <sheet name="برداشت از حساب" sheetId="3" r:id="rId3"/>
+    <sheet name="برداشت از حساب" sheetId="3" r:id="rId2"/>
+    <sheet name="واریز وجه از حسابدار قبلی" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>واحد</t>
   </si>
@@ -84,16 +84,38 @@
   </si>
   <si>
     <t>واریز موجودی اولیه از طرف اقای نوری</t>
+  </si>
+  <si>
+    <t>قبل از  واریز حقوق</t>
+  </si>
+  <si>
+    <t>تمیزکار</t>
+  </si>
+  <si>
+    <t>وسایل مورد نیاز تمیزکار</t>
+  </si>
+  <si>
+    <t>حق الزحمه تمیزکار که اقای اقانوری بجای سه برج شارژ پرداخت کردند</t>
+  </si>
+  <si>
+    <t>اقای زندی برای تمیزکار وسایل خریدند که بقیه مبلغ پرداخت شد و بقیه از مبلغ شارژ کم شد</t>
+  </si>
+  <si>
+    <t>قبل از مسئولیت حسابداری (در عوض حق الزحمه تمیزکار)</t>
+  </si>
+  <si>
+    <t>پردخت 4242930 بابت خرید لوازم تمیزکار و پرداخت الباقی 1757070 در تاریخ 26 مرداد 1402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="174" formatCode="[$-960429]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="168" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,14 +146,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,18 +440,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -482,9 +509,15 @@
       <c r="D2" s="2">
         <v>1500000</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1500000</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -494,24 +527,26 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>45011</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>45037</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>45069</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -529,24 +564,24 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>45101</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>45101</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>45101</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -561,22 +596,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>45034</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>45062</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -591,27 +626,41 @@
       <c r="D8" s="2">
         <v>1500000</v>
       </c>
+      <c r="E8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>45039</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>45069</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>45094</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -632,26 +681,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>45081</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>45081</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>45119</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>45119</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -663,20 +712,20 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>45046</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -703,30 +752,30 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>45102</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>45102</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>45102</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>45102</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>45102</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>45102</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -753,30 +802,30 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>45150</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>45150</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>45150</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>45150</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>45150</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>45150</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -808,24 +857,24 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>45034</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>45045</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>45078</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -852,22 +901,22 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>45021</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>45067</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
@@ -888,6 +937,12 @@
       <c r="D22" s="2">
         <v>1500000</v>
       </c>
+      <c r="E22" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1500000</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -897,24 +952,28 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>45031</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>45061</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>45091</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="E23" s="5">
+        <v>45154</v>
+      </c>
+      <c r="F23" s="5">
+        <v>45154</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -952,18 +1011,20 @@
       <c r="Z26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -971,41 +1032,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5C760-8C03-4895-BDE0-84FC05787A5E}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1F0AF-C881-42DD-8134-CAD3591AFCF1}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45150</v>
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>72966810</v>
+        <v>4500000</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>45155</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4242930</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,34 +1098,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1F0AF-C881-42DD-8134-CAD3591AFCF1}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5C760-8C03-4895-BDE0-84FC05787A5E}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B2" s="2">
+        <v>72966810</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A13D6F-0555-45B1-9A0A-085C6A6A6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E905DD4-C7B8-4A51-8C0B-F31AFE012F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,8 +114,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="168" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -150,13 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,16 +441,15 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
@@ -497,7 +496,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -526,30 +525,30 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4">
         <v>45011</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>45037</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -563,28 +562,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4">
         <v>45101</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>45101</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>45101</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -593,28 +592,43 @@
       <c r="C6" s="2">
         <v>1500000</v>
       </c>
+      <c r="D6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4">
         <v>45034</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>45062</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="D7" s="4">
+        <v>45063</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45063</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45063</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -640,30 +654,30 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4">
         <v>45039</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>45069</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -680,30 +694,30 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4">
         <v>45081</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>45081</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>45119</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>45119</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -711,24 +725,24 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4">
         <v>45046</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -751,34 +765,34 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4">
         <v>45102</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>45102</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>45102</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>45102</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>45102</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>45102</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -801,38 +815,38 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4">
         <v>45150</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>45150</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>45150</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>45150</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>45150</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>45150</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -856,32 +870,32 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4">
         <v>45034</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>45045</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>45078</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -900,23 +914,23 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4">
         <v>45021</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>45067</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
@@ -925,7 +939,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -951,29 +965,29 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4">
         <v>45031</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>45061</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>45091</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>45154</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>45154</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1041,14 +1055,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.21875" customWidth="1"/>
     <col min="4" max="4" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1062,7 +1076,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2">
@@ -1076,7 +1090,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>45155</v>
       </c>
       <c r="B3" s="2">
@@ -1090,7 +1104,7 @@
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,13 +1121,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1124,7 +1138,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45150</v>
       </c>
       <c r="B2" s="2">
@@ -1135,10 +1149,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E905DD4-C7B8-4A51-8C0B-F31AFE012F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BAA65A-8AC0-4BAD-A118-F50E8717F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
-    <sheet name="برداشت از حساب" sheetId="3" r:id="rId2"/>
-    <sheet name="واریز وجه از حسابدار قبلی" sheetId="2" r:id="rId3"/>
+    <sheet name="آب" sheetId="4" r:id="rId2"/>
+    <sheet name="برداشت از حساب" sheetId="3" r:id="rId3"/>
+    <sheet name="واریز وجه از حسابدار قبلی" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>واحد</t>
   </si>
@@ -105,6 +115,30 @@
   </si>
   <si>
     <t>پردخت 4242930 بابت خرید لوازم تمیزکار و پرداخت الباقی 1757070 در تاریخ 26 مرداد 1402</t>
+  </si>
+  <si>
+    <t>شماره کنتور   06/11- 08/05</t>
+  </si>
+  <si>
+    <t>اسفند</t>
+  </si>
+  <si>
+    <t>بهمن</t>
+  </si>
+  <si>
+    <t>اردیبهشت</t>
+  </si>
+  <si>
+    <t>قیمت اردیبهشت</t>
+  </si>
+  <si>
+    <t>قیمت اسفند</t>
+  </si>
+  <si>
+    <t>قیمت بهمن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قبض اب </t>
   </si>
 </sst>
 </file>
@@ -117,10 +151,17 @@
     <numFmt numFmtId="166" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,18 +187,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,8 +494,8 @@
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -496,7 +540,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -517,7 +561,9 @@
       <c r="G2" s="2">
         <v>1500000</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2">
+        <v>1500000</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -525,7 +571,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4">
         <v>45011</v>
       </c>
@@ -535,12 +581,14 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4">
+        <v>45195</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -548,7 +596,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -560,9 +608,15 @@
       <c r="D4" s="2">
         <v>1500000</v>
       </c>
+      <c r="E4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>45101</v>
       </c>
@@ -572,8 +626,12 @@
       <c r="D5" s="4">
         <v>45101</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4">
+        <v>44431</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44431</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -583,7 +641,7 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -603,7 +661,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4">
         <v>45034</v>
       </c>
@@ -628,7 +686,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -654,7 +712,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="4">
         <v>45039</v>
       </c>
@@ -664,12 +722,12 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -677,7 +735,7 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -694,7 +752,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4">
         <v>45081</v>
       </c>
@@ -717,7 +775,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -725,7 +783,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
@@ -742,7 +800,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -765,7 +823,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4">
         <v>45102</v>
       </c>
@@ -792,7 +850,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -815,7 +873,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4">
         <v>45150</v>
       </c>
@@ -846,7 +904,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -856,6 +914,15 @@
         <v>1500000</v>
       </c>
       <c r="D18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G18" s="2">
         <v>1500000</v>
       </c>
       <c r="I18" s="1"/>
@@ -870,7 +937,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4">
         <v>45034</v>
       </c>
@@ -880,9 +947,15 @@
       <c r="D19" s="4">
         <v>45078</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="4">
+        <v>44469</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44469</v>
+      </c>
+      <c r="G19" s="4">
+        <v>44469</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -895,7 +968,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -914,17 +987,25 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="4">
         <v>45021</v>
       </c>
       <c r="C21" s="4">
         <v>45067</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="D21" s="4">
+        <v>44468</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44468</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44468</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44468</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -939,7 +1020,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -955,6 +1036,9 @@
         <v>1500000</v>
       </c>
       <c r="F22" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G22" s="2">
         <v>1500000</v>
       </c>
       <c r="I22" s="1"/>
@@ -965,7 +1049,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="4">
         <v>45031</v>
       </c>
@@ -981,7 +1065,9 @@
       <c r="F23" s="4">
         <v>45154</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>44456</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1046,18 +1132,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3258</v>
+      </c>
+      <c r="E2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3349</v>
+      </c>
+      <c r="G2" s="5">
+        <v>33500</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3349</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I11" si="0">H2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5">
+        <v>14500</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1972</v>
+      </c>
+      <c r="G3" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1972</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D4" s="8">
+        <v>152134</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="8">
+        <v>166600</v>
+      </c>
+      <c r="G4" s="5">
+        <v>17000</v>
+      </c>
+      <c r="H4" s="8">
+        <v>205277</v>
+      </c>
+      <c r="I4">
+        <f>ROUNDDOWN((H4-F4)/1000,0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2320</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2335</v>
+      </c>
+      <c r="E5" s="5">
+        <v>18500</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2345</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10500</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2369</v>
+      </c>
+      <c r="I5">
+        <f>H5-F5</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5">
+        <v>8500</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2138</v>
+      </c>
+      <c r="E6" s="5">
+        <v>17000</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2168</v>
+      </c>
+      <c r="G6" s="5">
+        <v>17000</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2168</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5">
+        <v>8500</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2084</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7000</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2084</v>
+      </c>
+      <c r="I7">
+        <f>ABS(H7-F7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5">
+        <v>3500</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1698</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3500</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1698</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5">
+        <v>21500</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1538</v>
+      </c>
+      <c r="G9" s="5">
+        <v>24000</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1538</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1460</v>
+      </c>
+      <c r="C10" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1472</v>
+      </c>
+      <c r="E10" s="5">
+        <v>14500</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1482</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1511</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>98313</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F11" s="8">
+        <v>98290</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>98232</v>
+      </c>
+      <c r="I11">
+        <f>ABS(H11-F11)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1454</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1471</v>
+      </c>
+      <c r="I12">
+        <f>H12-F12</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1F0AF-C881-42DD-8134-CAD3591AFCF1}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,6 +1566,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44436</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4673000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
     </row>
@@ -1111,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5C760-8C03-4895-BDE0-84FC05787A5E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1122,7 +1596,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BAA65A-8AC0-4BAD-A118-F50E8717F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569C6DDD-BEC4-4629-A595-C3C288C160B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>واحد</t>
   </si>
@@ -120,25 +120,10 @@
     <t>شماره کنتور   06/11- 08/05</t>
   </si>
   <si>
-    <t>اسفند</t>
-  </si>
-  <si>
-    <t>بهمن</t>
-  </si>
-  <si>
-    <t>اردیبهشت</t>
-  </si>
-  <si>
-    <t>قیمت اردیبهشت</t>
-  </si>
-  <si>
-    <t>قیمت اسفند</t>
-  </si>
-  <si>
-    <t>قیمت بهمن</t>
-  </si>
-  <si>
     <t xml:space="preserve">قبض اب </t>
+  </si>
+  <si>
+    <t>شماره کنتور 1402/03/01</t>
   </si>
 </sst>
 </file>
@@ -194,14 +179,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +470,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +525,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -571,7 +556,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4">
         <v>45011</v>
       </c>
@@ -581,11 +566,11 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="4">
         <v>45195</v>
       </c>
@@ -596,7 +581,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -616,7 +601,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4">
         <v>45101</v>
       </c>
@@ -641,7 +626,7 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -661,7 +646,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4">
         <v>45034</v>
       </c>
@@ -686,7 +671,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -712,7 +697,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4">
         <v>45039</v>
       </c>
@@ -722,12 +707,12 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -735,7 +720,7 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -752,7 +737,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>45081</v>
       </c>
@@ -775,7 +760,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -783,7 +768,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
@@ -800,7 +785,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -823,7 +808,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4">
         <v>45102</v>
       </c>
@@ -850,7 +835,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -873,7 +858,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4">
         <v>45150</v>
       </c>
@@ -904,7 +889,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -937,7 +922,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4">
         <v>45034</v>
       </c>
@@ -968,7 +953,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -987,7 +972,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4">
         <v>45021</v>
       </c>
@@ -1020,7 +1005,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="9">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -1049,7 +1034,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="4">
         <v>45031</v>
       </c>
@@ -1133,375 +1118,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1" s="2">
+        <v>619900</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="5">
-        <v>30000</v>
-      </c>
-      <c r="D2" s="8">
-        <v>3258</v>
+      <c r="B2">
+        <v>3286</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3349</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2-B2</f>
+        <v>63</v>
       </c>
       <c r="E2" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F2" s="9">
-        <v>3349</v>
-      </c>
-      <c r="G2" s="5">
-        <v>33500</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3349</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I11" si="0">H2-F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D2*(619900)/438</f>
+        <v>89163.698630136991</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5">
-        <v>12000</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="B3">
+        <v>1945</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1972</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3-B3</f>
+        <v>27</v>
+      </c>
       <c r="E3" s="5">
-        <v>14500</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1972</v>
-      </c>
-      <c r="G3" s="5">
-        <v>13000</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1972</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D3*(619900)/438</f>
+        <v>38213.013698630137</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5">
-        <v>4800</v>
-      </c>
-      <c r="D4" s="8">
-        <v>152134</v>
+      <c r="B4">
+        <v>166</v>
+      </c>
+      <c r="C4" s="6">
+        <v>205</v>
+      </c>
+      <c r="D4" s="6">
+        <f>ABS(C4-B4)</f>
+        <v>39</v>
       </c>
       <c r="E4" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F4" s="8">
-        <v>166600</v>
-      </c>
-      <c r="G4" s="5">
-        <v>17000</v>
-      </c>
-      <c r="H4" s="8">
-        <v>205277</v>
-      </c>
-      <c r="I4">
-        <f>ROUNDDOWN((H4-F4)/1000,0)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D4*(619900)/438</f>
+        <v>55196.575342465752</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>2320</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6000</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2335</v>
+      <c r="B5">
+        <v>2345</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2369</v>
+      </c>
+      <c r="D5" s="6">
+        <f>C5-B5</f>
+        <v>24</v>
       </c>
       <c r="E5" s="5">
-        <v>18500</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2345</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10500</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2369</v>
-      </c>
-      <c r="I5">
-        <f>H5-F5</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D5*(619900)/438</f>
+        <v>33967.123287671231</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5">
-        <v>8500</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2138</v>
+      <c r="B6">
+        <v>2152</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2168</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6-B6</f>
+        <v>16</v>
       </c>
       <c r="E6" s="5">
-        <v>17000</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2168</v>
-      </c>
-      <c r="G6" s="5">
-        <v>17000</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2168</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D6*(619900)/438</f>
+        <v>22644.748858447489</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5">
-        <v>6000</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="B7">
+        <v>2056</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2084</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7-B7</f>
+        <v>28</v>
+      </c>
       <c r="E7" s="5">
-        <v>8500</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2084</v>
-      </c>
-      <c r="G7" s="5">
-        <v>7000</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2084</v>
-      </c>
-      <c r="I7">
-        <f>ABS(H7-F7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D7*(619900)/438</f>
+        <v>39628.310502283108</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5">
-        <v>3500</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="B8">
+        <v>1696</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1698</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8-B8</f>
+        <v>2</v>
+      </c>
       <c r="E8" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1698</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3500</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1698</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D8*(619900)/438</f>
+        <v>2830.5936073059361</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5">
-        <v>21500</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="B9">
+        <v>1485</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1538</v>
+      </c>
+      <c r="D9" s="6">
+        <f>C9-B9</f>
+        <v>53</v>
+      </c>
       <c r="E9" s="5">
-        <v>25000</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1538</v>
-      </c>
-      <c r="G9" s="5">
-        <v>24000</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1538</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D9*(619900)/438</f>
+        <v>75010.73059360731</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>1460</v>
-      </c>
-      <c r="C10" s="5">
-        <v>12000</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1472</v>
+      <c r="B10">
+        <v>1482</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1511</v>
+      </c>
+      <c r="D10" s="6">
+        <f>C10-B10</f>
+        <v>29</v>
       </c>
       <c r="E10" s="5">
-        <v>14500</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1482</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12000</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1511</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D10*(619900)/438</f>
+        <v>41043.607305936071</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5">
-        <v>6000</v>
-      </c>
-      <c r="D11" s="8">
-        <v>98313</v>
+      <c r="B11">
+        <v>98290</v>
+      </c>
+      <c r="C11" s="6">
+        <v>98230</v>
+      </c>
+      <c r="D11" s="6">
+        <f>ABS(C11-B11)</f>
+        <v>60</v>
       </c>
       <c r="E11" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F11" s="8">
-        <v>98290</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H11" s="8">
-        <v>98232</v>
-      </c>
-      <c r="I11">
-        <f>ABS(H11-F11)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D11*(619900)/438</f>
+        <v>84917.808219178085</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5">
-        <v>6000</v>
-      </c>
-      <c r="D12" s="8"/>
+      <c r="B12">
+        <v>1454</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1471</v>
+      </c>
+      <c r="D12" s="6">
+        <f>C12-B12</f>
+        <v>17</v>
+      </c>
       <c r="E12" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1454</v>
-      </c>
-      <c r="G12" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1471</v>
-      </c>
-      <c r="I12">
-        <f>H12-F12</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="F13" s="8"/>
+        <f>D12*(619900)/438</f>
+        <v>24060.045662100456</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="6"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1512,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1F0AF-C881-42DD-8134-CAD3591AFCF1}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,7 +1461,7 @@
         <v>4673000</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569C6DDD-BEC4-4629-A595-C3C288C160B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FBCC5-D5F5-440D-9C07-72BD9F7E9C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mahdi hajian</author>
+  </authors>
+  <commentList>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{F7904E5E-63B6-43C2-AB7B-5CB23AD0A675}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mahdi hajian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+یک میلیون دادن بابت دو برج شارژ و آب و بقیش هم قرض بابت کمبود پول تعمیر درب برقی</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{5A933656-5E75-4BFB-8716-AAB5DB2A2FCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mahdi hajian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+یک میلیون دادن بابت دو برج شارژ و آب و بقیش هم قرض بابت کمبود پول تعمیر درب برقی</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>واحد</t>
   </si>
@@ -124,6 +178,12 @@
   </si>
   <si>
     <t>شماره کنتور 1402/03/01</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>خرید روغن آسانسور به مبلغ 200 هزار تومان به علاوه صد تومان پول   1 آبان 1402</t>
   </si>
 </sst>
 </file>
@@ -136,7 +196,7 @@
     <numFmt numFmtId="166" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +210,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +551,8 @@
     <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -599,6 +671,15 @@
       <c r="F4" s="2">
         <v>1500000</v>
       </c>
+      <c r="G4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -612,14 +693,20 @@
         <v>45101</v>
       </c>
       <c r="E5" s="4">
-        <v>44431</v>
+        <v>45161</v>
       </c>
       <c r="F5" s="4">
-        <v>44431</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>45161</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45214</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45222</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45222</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -644,6 +731,12 @@
       <c r="F6" s="2">
         <v>1500000</v>
       </c>
+      <c r="G6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -662,8 +755,12 @@
       <c r="F7" s="4">
         <v>45063</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>45212</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45212</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -695,6 +792,12 @@
       <c r="H8" s="2">
         <v>1500000</v>
       </c>
+      <c r="I8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -713,8 +816,10 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -766,18 +871,48 @@
       <c r="B12" s="2">
         <v>1500000</v>
       </c>
+      <c r="C12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="C13" s="4">
+        <v>45217</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45217</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45217</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45217</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45217</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45217</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -856,6 +991,9 @@
       <c r="G16" s="2">
         <v>1500000</v>
       </c>
+      <c r="H16" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
@@ -877,7 +1015,9 @@
       <c r="G17" s="4">
         <v>45150</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>45212</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -910,7 +1050,12 @@
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="H18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1500000</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -941,8 +1086,12 @@
       <c r="G19" s="4">
         <v>44469</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4">
+        <v>45222</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45222</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1026,6 +1175,9 @@
       <c r="G22" s="2">
         <v>1500000</v>
       </c>
+      <c r="H22" s="2">
+        <v>1500000</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1053,7 +1205,9 @@
       <c r="G23" s="4">
         <v>44456</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>45213</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1096,7 +1250,8 @@
       <c r="Z26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="A18:A19"/>
@@ -1113,6 +1268,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1120,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,10 +1321,12 @@
         <v>63</v>
       </c>
       <c r="E2" s="5">
-        <f>D2*(619900)/438</f>
+        <f t="shared" ref="E2:E12" si="0">D2*(619900)/438</f>
         <v>89163.698630136991</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,10 +1344,12 @@
         <v>27</v>
       </c>
       <c r="E3" s="5">
-        <f>D3*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>38213.013698630137</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1207,10 +1367,12 @@
         <v>39</v>
       </c>
       <c r="E4" s="5">
-        <f>D4*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>55196.575342465752</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1224,14 +1386,16 @@
         <v>2369</v>
       </c>
       <c r="D5" s="6">
-        <f>C5-B5</f>
+        <f t="shared" ref="D5:D10" si="1">C5-B5</f>
         <v>24</v>
       </c>
       <c r="E5" s="5">
-        <f>D5*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>33967.123287671231</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,14 +1409,16 @@
         <v>2168</v>
       </c>
       <c r="D6" s="6">
-        <f>C6-B6</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E6" s="5">
-        <f>D6*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>22644.748858447489</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1266,11 +1432,11 @@
         <v>2084</v>
       </c>
       <c r="D7" s="6">
-        <f>C7-B7</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E7" s="5">
-        <f>D7*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>39628.310502283108</v>
       </c>
       <c r="F7" s="7"/>
@@ -1287,14 +1453,16 @@
         <v>1698</v>
       </c>
       <c r="D8" s="6">
-        <f>C8-B8</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E8" s="5">
-        <f>D8*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>2830.5936073059361</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1308,14 +1476,16 @@
         <v>1538</v>
       </c>
       <c r="D9" s="6">
-        <f>C9-B9</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E9" s="5">
-        <f>D9*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>75010.73059360731</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1329,14 +1499,16 @@
         <v>1511</v>
       </c>
       <c r="D10" s="6">
-        <f>C10-B10</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="E10" s="5">
-        <f>D10*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>41043.607305936071</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="E11" s="5">
-        <f>D11*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>84917.808219178085</v>
       </c>
       <c r="F11" s="6"/>
@@ -1375,10 +1547,12 @@
         <v>17</v>
       </c>
       <c r="E12" s="5">
-        <f>D12*(619900)/438</f>
+        <f t="shared" si="0"/>
         <v>24060.045662100456</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FBCC5-D5F5-440D-9C07-72BD9F7E9C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579EC1D-02B7-43CF-AA5E-DCDBE953323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,29 +42,7 @@
     <author>mahdi hajian</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{F7904E5E-63B6-43C2-AB7B-5CB23AD0A675}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>mahdi hajian:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-یک میلیون دادن بابت دو برج شارژ و آب و بقیش هم قرض بابت کمبود پول تعمیر درب برقی</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{5A933656-5E75-4BFB-8716-AAB5DB2A2FCD}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{F7904E5E-63B6-43C2-AB7B-5CB23AD0A675}">
       <text>
         <r>
           <rPr>
@@ -91,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>واحد</t>
   </si>
@@ -541,7 +519,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +530,10 @@
     <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -621,7 +602,9 @@
       <c r="H2" s="2">
         <v>1500000</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="2">
+        <v>1500000</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -646,7 +629,9 @@
       <c r="H3" s="4">
         <v>45195</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>45222</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -674,12 +659,7 @@
       <c r="G4" s="2">
         <v>1500000</v>
       </c>
-      <c r="H4" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -700,12 +680,6 @@
       </c>
       <c r="G5" s="4">
         <v>45214</v>
-      </c>
-      <c r="H5" s="4">
-        <v>45222</v>
-      </c>
-      <c r="I5" s="4">
-        <v>45222</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -798,6 +772,15 @@
       <c r="J8" s="2">
         <v>1500000</v>
       </c>
+      <c r="K8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -820,9 +803,15 @@
         <v>30</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="K9" s="4">
+        <v>45223</v>
+      </c>
+      <c r="L9" s="4">
+        <v>45223</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45223</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
@@ -1111,7 +1100,24 @@
       <c r="C20" s="2">
         <v>1500000</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="D20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1500000</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1129,19 +1135,23 @@
         <v>45067</v>
       </c>
       <c r="D21" s="4">
-        <v>44468</v>
+        <v>45198</v>
       </c>
       <c r="E21" s="4">
-        <v>44468</v>
+        <v>45198</v>
       </c>
       <c r="F21" s="4">
-        <v>44468</v>
+        <v>45198</v>
       </c>
       <c r="G21" s="4">
-        <v>44468</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+        <v>45198</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45235</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45235</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1251,11 +1261,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -1263,6 +1268,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
@@ -1274,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1300,7 @@
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1316,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1327,9 +1337,15 @@
       <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="6">
+        <v>3373</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2-C2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1350,9 +1366,15 @@
       <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="6">
+        <v>1976</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3-C3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1373,9 +1395,13 @@
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <f>G4-C4</f>
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1396,9 +1422,15 @@
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="6">
+        <v>2379</v>
+      </c>
+      <c r="H5" s="6">
+        <f>G5-C5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1419,9 +1451,15 @@
       <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="6">
+        <v>2168</v>
+      </c>
+      <c r="H6" s="6">
+        <f>G6-C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1439,10 +1477,18 @@
         <f t="shared" si="0"/>
         <v>39628.310502283108</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2093</v>
+      </c>
+      <c r="H7" s="6">
+        <f>G7-C7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1460,12 +1506,14 @@
         <f t="shared" si="0"/>
         <v>2830.5936073059361</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <f>G8-C8</f>
+        <v>-1698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1486,9 +1534,15 @@
       <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="6">
+        <v>1557</v>
+      </c>
+      <c r="H9" s="6">
+        <f>G9-C9</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1509,9 +1563,15 @@
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="6">
+        <v>1519</v>
+      </c>
+      <c r="H10" s="6">
+        <f>G10-C10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1529,10 +1589,18 @@
         <f t="shared" si="0"/>
         <v>84917.808219178085</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>98213</v>
+      </c>
+      <c r="H11" s="6">
+        <f>G11-C11</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1553,14 +1621,20 @@
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="6">
+        <v>1477</v>
+      </c>
+      <c r="H12" s="6">
+        <f>G12-C12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579EC1D-02B7-43CF-AA5E-DCDBE953323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72F0AE-40F5-40CD-BC21-D21E3FBC0856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
@@ -230,11 +230,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,22 +518,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -578,7 +577,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -611,7 +610,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="4">
         <v>45011</v>
       </c>
@@ -621,11 +620,11 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="4">
         <v>45195</v>
       </c>
@@ -638,7 +637,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -659,10 +658,13 @@
       <c r="G4" s="2">
         <v>1500000</v>
       </c>
+      <c r="H4" s="2">
+        <v>1500000</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4">
         <v>45101</v>
       </c>
@@ -680,6 +682,9 @@
       </c>
       <c r="G5" s="4">
         <v>45214</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45236</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -687,7 +692,7 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -713,7 +718,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="4">
         <v>45034</v>
       </c>
@@ -742,7 +747,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -783,7 +788,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>45039</v>
       </c>
@@ -793,16 +798,16 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="4">
         <v>45223</v>
       </c>
@@ -814,7 +819,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -831,7 +836,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="4">
         <v>45081</v>
       </c>
@@ -854,7 +859,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -880,7 +885,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
@@ -909,7 +914,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -932,7 +937,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>45102</v>
       </c>
@@ -959,7 +964,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -983,9 +988,12 @@
       <c r="H16" s="2">
         <v>1500000</v>
       </c>
+      <c r="I16" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4">
         <v>45150</v>
       </c>
@@ -1007,7 +1015,9 @@
       <c r="H17" s="4">
         <v>45212</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>45236</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1018,7 +1028,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -1056,7 +1066,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="4">
         <v>45034</v>
       </c>
@@ -1091,7 +1101,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -1127,7 +1137,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="4">
         <v>45021</v>
       </c>
@@ -1164,7 +1174,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -1188,7 +1198,9 @@
       <c r="H22" s="2">
         <v>1500000</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2">
+        <v>1500000</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1196,7 +1208,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="4">
         <v>45031</v>
       </c>
@@ -1218,7 +1230,9 @@
       <c r="H23" s="4">
         <v>45213</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4">
+        <v>45236</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1261,6 +1275,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -1268,13 +1289,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1341,7 +1355,7 @@
         <v>3373</v>
       </c>
       <c r="H2" s="6">
-        <f>G2-C2</f>
+        <f t="shared" ref="H2:H12" si="1">G2-C2</f>
         <v>24</v>
       </c>
     </row>
@@ -1370,7 +1384,7 @@
         <v>1976</v>
       </c>
       <c r="H3" s="6">
-        <f>G3-C3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1397,7 +1411,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <f>G4-C4</f>
+        <f t="shared" si="1"/>
         <v>-205</v>
       </c>
     </row>
@@ -1412,7 +1426,7 @@
         <v>2369</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D10" si="1">C5-B5</f>
+        <f t="shared" ref="D5:D10" si="2">C5-B5</f>
         <v>24</v>
       </c>
       <c r="E5" s="5">
@@ -1426,7 +1440,7 @@
         <v>2379</v>
       </c>
       <c r="H5" s="6">
-        <f>G5-C5</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1441,7 +1455,7 @@
         <v>2168</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E6" s="5">
@@ -1455,7 +1469,7 @@
         <v>2168</v>
       </c>
       <c r="H6" s="6">
-        <f>G6-C6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1470,7 +1484,7 @@
         <v>2084</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E7" s="5">
@@ -1484,7 +1498,7 @@
         <v>2093</v>
       </c>
       <c r="H7" s="6">
-        <f>G7-C7</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1499,7 +1513,7 @@
         <v>1698</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E8" s="5">
@@ -1509,7 +1523,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
-        <f>G8-C8</f>
+        <f t="shared" si="1"/>
         <v>-1698</v>
       </c>
     </row>
@@ -1524,7 +1538,7 @@
         <v>1538</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="E9" s="5">
@@ -1538,7 +1552,7 @@
         <v>1557</v>
       </c>
       <c r="H9" s="6">
-        <f>G9-C9</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1553,7 +1567,7 @@
         <v>1511</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E10" s="5">
@@ -1567,7 +1581,7 @@
         <v>1519</v>
       </c>
       <c r="H10" s="6">
-        <f>G10-C10</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1596,7 +1610,7 @@
         <v>98213</v>
       </c>
       <c r="H11" s="6">
-        <f>G11-C11</f>
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
     </row>
@@ -1625,7 +1639,7 @@
         <v>1477</v>
       </c>
       <c r="H12" s="6">
-        <f>G12-C12</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72F0AE-40F5-40CD-BC21-D21E3FBC0856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A1962-1F3C-4444-941D-F52422154FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
     <col min="5" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
     <col min="11" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -649,11 +649,9 @@
       <c r="D4" s="2">
         <v>1500000</v>
       </c>
-      <c r="E4" s="2">
-        <v>1500000</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="G4" s="2">
         <v>1500000</v>
@@ -674,9 +672,7 @@
       <c r="D5" s="4">
         <v>45101</v>
       </c>
-      <c r="E5" s="4">
-        <v>45161</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>45161</v>
       </c>
@@ -716,6 +712,9 @@
       <c r="H6" s="2">
         <v>1500000</v>
       </c>
+      <c r="I6" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
@@ -740,7 +739,9 @@
       <c r="H7" s="4">
         <v>45212</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>45244</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A1962-1F3C-4444-941D-F52422154FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E6850-30DE-49A7-AFF3-284BFBFEDFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
     <sheet name="آب" sheetId="4" r:id="rId2"/>
     <sheet name="برداشت از حساب" sheetId="3" r:id="rId3"/>
     <sheet name="واریز وجه از حسابدار قبلی" sheetId="2" r:id="rId4"/>
+    <sheet name="ایزوگام" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>واحد</t>
   </si>
@@ -162,6 +163,57 @@
   </si>
   <si>
     <t>خرید روغن آسانسور به مبلغ 200 هزار تومان به علاوه صد تومان پول   1 آبان 1402</t>
+  </si>
+  <si>
+    <t>متراژ</t>
+  </si>
+  <si>
+    <t>بنا بر متراژ</t>
+  </si>
+  <si>
+    <t>هزینه اختصاصی</t>
+  </si>
+  <si>
+    <t>متراژ کل ساختمان</t>
+  </si>
+  <si>
+    <t>هزینه هر متر ایزوگام</t>
+  </si>
+  <si>
+    <t>هزینه ایزوگام</t>
+  </si>
+  <si>
+    <t>مبلغی که هر واحد واریز کرد</t>
+  </si>
+  <si>
+    <t>بایستی پرداختی اول</t>
+  </si>
+  <si>
+    <t>قیمت نهایی</t>
+  </si>
+  <si>
+    <t>ایزوگام مشاع</t>
+  </si>
+  <si>
+    <t>گرد ده هزار تومان</t>
+  </si>
+  <si>
+    <t>وضعیت</t>
+  </si>
+  <si>
+    <t>مبنای قیمتی که پول جمع کردیم</t>
+  </si>
+  <si>
+    <t>اختصاصی(متر)</t>
+  </si>
+  <si>
+    <t>پول هایی که جمع شده منهای وضعیت گرد شده</t>
+  </si>
+  <si>
+    <t>ده هزار تومان به علت گرد شدن کمتر از هزینه ایزوگام شده است</t>
+  </si>
+  <si>
+    <t>مشاع هر واحد</t>
   </si>
 </sst>
 </file>
@@ -221,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,12 +282,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +584,7 @@
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,7 +630,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -604,13 +657,15 @@
       <c r="I2" s="2">
         <v>1500000</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="J2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4">
         <v>45011</v>
       </c>
@@ -620,24 +675,26 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="4">
         <v>45195</v>
       </c>
       <c r="I3" s="4">
         <v>45222</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>45253</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -659,10 +716,16 @@
       <c r="H4" s="2">
         <v>1500000</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4">
         <v>45101</v>
       </c>
@@ -681,6 +744,9 @@
       </c>
       <c r="H5" s="4">
         <v>45236</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45244</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -688,7 +754,7 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -715,9 +781,13 @@
       <c r="I6" s="2">
         <v>1500000</v>
       </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4">
         <v>45034</v>
       </c>
@@ -748,7 +818,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -789,7 +859,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4">
         <v>45039</v>
       </c>
@@ -799,16 +869,16 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="4">
         <v>45223</v>
       </c>
@@ -820,7 +890,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -837,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>45081</v>
       </c>
@@ -860,7 +930,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -886,7 +956,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
@@ -915,7 +985,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -938,7 +1008,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4">
         <v>45102</v>
       </c>
@@ -965,7 +1035,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -994,7 +1064,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4">
         <v>45150</v>
       </c>
@@ -1029,7 +1099,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -1067,7 +1137,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4">
         <v>45034</v>
       </c>
@@ -1102,7 +1172,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -1129,7 +1199,9 @@
       <c r="I20" s="2">
         <v>1500000</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="2">
+        <v>1500000</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1138,7 +1210,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4">
         <v>45021</v>
       </c>
@@ -1163,7 +1235,9 @@
       <c r="I21" s="4">
         <v>45235</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>45253</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1175,7 +1249,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -1209,7 +1283,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="4">
         <v>45031</v>
       </c>
@@ -1276,6 +1350,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E9:H9"/>
@@ -1283,13 +1364,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1302,7 +1376,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,4 +1855,635 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5347E886-33BA-4594-AB57-753A37BDBDC8}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <f>SUM(B4:B14)</f>
+        <v>1054.8800000000001</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2">
+        <v>600000000</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2">
+        <v>490500000</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2">
+        <v>44000000</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2">
+        <f>H1-J1-H15</f>
+        <v>444300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>120.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45253</v>
+      </c>
+      <c r="D4" s="2">
+        <f>B4*$F$1/$B$1</f>
+        <v>68538601.547095403</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40500000</v>
+      </c>
+      <c r="F4" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f>B4*$L$1/$B$1+F4+H4</f>
+        <v>54752834.445624143</v>
+      </c>
+      <c r="J4" s="2">
+        <f>E4-I4</f>
+        <v>-14252834.445624143</v>
+      </c>
+      <c r="K4" s="2">
+        <f>ROUND(J4,-5)</f>
+        <v>-14300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>79.56</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2">
+        <f>B5*$F$1/$B$1</f>
+        <v>45252540.57333535</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>G5*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>B5*$L$1/$B$1+F5+H5</f>
+        <v>37509506.29455483</v>
+      </c>
+      <c r="J5" s="2">
+        <f>E5-I5</f>
+        <v>-37509506.29455483</v>
+      </c>
+      <c r="K5" s="2">
+        <f>ROUND(J5,-5)</f>
+        <v>-37500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>69.92</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45253</v>
+      </c>
+      <c r="D6" s="2">
+        <f>B6*$F$1/$B$1</f>
+        <v>39769452.44956772</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39800000</v>
+      </c>
+      <c r="F6" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f>G6*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f>B6*$L$1/$B$1+F6+H6</f>
+        <v>33449279.538904898</v>
+      </c>
+      <c r="J6" s="2">
+        <f>E6-I6</f>
+        <v>6350720.4610951021</v>
+      </c>
+      <c r="K6" s="2">
+        <f>ROUND(J6,-5)</f>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>109.3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45252</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B7*$F$1/$B$1</f>
+        <v>62168208.706203543</v>
+      </c>
+      <c r="E7" s="2">
+        <v>63000000</v>
+      </c>
+      <c r="F7" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>G7*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f>B7*$L$1/$B$1+F7+H7</f>
+        <v>50035558.546943724</v>
+      </c>
+      <c r="J7" s="2">
+        <f>E7-I7</f>
+        <v>12964441.453056276</v>
+      </c>
+      <c r="K7" s="2">
+        <f>ROUND(J7,-5)</f>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>105.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45254</v>
+      </c>
+      <c r="D8" s="2">
+        <f>B8*$F$1/$B$1</f>
+        <v>60120582.435916878</v>
+      </c>
+      <c r="E8" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="F8" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f>B8*$L$1/$B$1+F8+H8</f>
+        <v>48519291.29379645</v>
+      </c>
+      <c r="J8" s="2">
+        <f>E8-I8</f>
+        <v>11480708.70620355</v>
+      </c>
+      <c r="K8" s="2">
+        <f>ROUND(J8,-5)</f>
+        <v>11500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>58.9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45251</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B9*$F$1/$B$1</f>
+        <v>33501440.922190197</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="F9" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G9*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f>B9*$L$1/$B$1+F9+H9</f>
+        <v>28807817.002881844</v>
+      </c>
+      <c r="J9" s="2">
+        <f>E9-I9</f>
+        <v>-11807817.002881844</v>
+      </c>
+      <c r="K9" s="2">
+        <f>ROUND(J9,-5)</f>
+        <v>-11800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>109.13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45258</v>
+      </c>
+      <c r="D10" s="2">
+        <f>B10*$F$1/$B$1</f>
+        <v>62071515.243440002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>62000000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G10*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f>B10*$L$1/$B$1+F10+H10</f>
+        <v>49963957.037767321</v>
+      </c>
+      <c r="J10" s="2">
+        <f>E10-I10</f>
+        <v>12036042.962232679</v>
+      </c>
+      <c r="K10" s="2">
+        <f>ROUND(J10,-5)</f>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>117.62</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45253</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B11*$F$1/$B$1</f>
+        <v>66900500.530866064</v>
+      </c>
+      <c r="E11" s="2">
+        <v>67000000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f>B11*$L$1/$B$1+F11+H11</f>
+        <v>53539820.643106319</v>
+      </c>
+      <c r="J11" s="2">
+        <f>E11-I11</f>
+        <v>13460179.356893681</v>
+      </c>
+      <c r="K11" s="2">
+        <f>ROUND(J11,-5)</f>
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>69.92</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45253</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12*$F$1/$B$1</f>
+        <v>39769452.44956772</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="F12" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <f>G12*$D$1</f>
+        <v>2200000</v>
+      </c>
+      <c r="I12" s="2">
+        <f>B12*$L$1/$B$1+F12+H12</f>
+        <v>35649279.538904898</v>
+      </c>
+      <c r="J12" s="2">
+        <f>E12-I12</f>
+        <v>4350720.4610951021</v>
+      </c>
+      <c r="K12" s="2">
+        <f>ROUND(J12,-5)</f>
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>108.93</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45254</v>
+      </c>
+      <c r="D13" s="2">
+        <f>B13*$F$1/$B$1</f>
+        <v>61957758.228424087</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="F13" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f>B13*$L$1/$B$1+F13+H13</f>
+        <v>49879719.96814803</v>
+      </c>
+      <c r="J13" s="2">
+        <f>E13-I13</f>
+        <v>10120280.03185197</v>
+      </c>
+      <c r="K13" s="2">
+        <f>ROUND(J13,-5)</f>
+        <v>10100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>105.4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45249</v>
+      </c>
+      <c r="D14" s="2">
+        <f>B14*$F$1/$B$1</f>
+        <v>59949946.913392983</v>
+      </c>
+      <c r="E14" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="F14" s="2">
+        <f>$J$1/11</f>
+        <v>4000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f>G14*$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f>B14*$L$1/$B$1+F14+H14</f>
+        <v>48392935.689367503</v>
+      </c>
+      <c r="J14" s="2">
+        <f>E14-I14</f>
+        <v>11607064.310632497</v>
+      </c>
+      <c r="K14" s="2">
+        <f>ROUND(J14,-5)</f>
+        <v>11600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <f>SUM(D4:D14)</f>
+        <v>600000000</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E4:E14)</f>
+        <v>509300000</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2">
+        <f>SUM(H4:H14)</f>
+        <v>2200000</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SUM(I4:I14)</f>
+        <v>490500000</v>
+      </c>
+      <c r="J15" s="2">
+        <f>SUM(J4:J14)</f>
+        <v>18800000.000000041</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K4:K14)</f>
+        <v>18900000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="2">
+        <f>E15-K15</f>
+        <v>490400000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E6850-30DE-49A7-AFF3-284BFBFEDFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832DA9D-2C8F-47AE-80FF-BD622DFC9A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>واحد</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>مشاع هر واحد</t>
+  </si>
+  <si>
+    <t>کم کردن از شارژ</t>
+  </si>
+  <si>
+    <t>همه عکس کنتور ندادند</t>
+  </si>
+  <si>
+    <t>کامل پرداخت نشده - از ایزوگام کم شده</t>
+  </si>
+  <si>
+    <t>با پول اب تسویه شد</t>
+  </si>
+  <si>
+    <t>واریز شد</t>
+  </si>
+  <si>
+    <t>با شارژ تسویه شد</t>
+  </si>
+  <si>
+    <t>واریز شد. پول اب هم کم شد</t>
+  </si>
+  <si>
+    <t>واریز شد پول اب هم کم شد</t>
   </si>
 </sst>
 </file>
@@ -273,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -282,13 +306,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +613,7 @@
     <col min="11" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +654,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -664,8 +689,8 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
       <c r="B3" s="4">
         <v>45011</v>
       </c>
@@ -675,11 +700,11 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="4">
         <v>45195</v>
       </c>
@@ -693,8 +718,8 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -706,9 +731,11 @@
       <c r="D4" s="2">
         <v>1500000</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>3000000</v>
+      </c>
       <c r="F4" s="2">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G4" s="2">
         <v>1500000</v>
@@ -719,13 +746,15 @@
       <c r="I4" s="2">
         <v>1500000</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>1500000</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
       <c r="B5" s="4">
         <v>45101</v>
       </c>
@@ -735,26 +764,30 @@
       <c r="D5" s="4">
         <v>45101</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>45161</v>
+      </c>
       <c r="F5" s="4">
-        <v>45161</v>
+        <v>45214</v>
       </c>
       <c r="G5" s="4">
-        <v>45214</v>
+        <v>45236</v>
       </c>
       <c r="H5" s="4">
-        <v>45236</v>
+        <v>45244</v>
       </c>
       <c r="I5" s="4">
-        <v>45244</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>45264</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45264</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -786,8 +819,8 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="B7" s="4">
         <v>45034</v>
       </c>
@@ -817,8 +850,8 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -858,8 +891,8 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="4">
         <v>45039</v>
       </c>
@@ -869,16 +902,16 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="4">
         <v>45223</v>
       </c>
@@ -889,8 +922,8 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -905,9 +938,36 @@
       <c r="E10" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="F10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="4">
         <v>45081</v>
       </c>
@@ -920,17 +980,33 @@
       <c r="E11" s="4">
         <v>45119</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="F11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="L11" s="4">
+        <v>45263</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -955,8 +1031,8 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
@@ -984,8 +1060,8 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -1006,9 +1082,18 @@
       <c r="G14" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="H14" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" s="4">
         <v>45102</v>
       </c>
@@ -1027,15 +1112,21 @@
       <c r="G15" s="4">
         <v>45102</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="4">
+        <v>45258</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45258</v>
+      </c>
+      <c r="J15" s="4">
+        <v>45258</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -1062,9 +1153,12 @@
       <c r="I16" s="2">
         <v>1500000</v>
       </c>
+      <c r="J16" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4">
         <v>45150</v>
       </c>
@@ -1089,7 +1183,9 @@
       <c r="I17" s="4">
         <v>45236</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>45263</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1099,7 +1195,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -1126,10 +1222,18 @@
       <c r="I18" s="2">
         <v>1500000</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="J18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1500000</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -1137,7 +1241,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4">
         <v>45034</v>
       </c>
@@ -1162,17 +1266,25 @@
       <c r="I19" s="4">
         <v>45222</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="J19" s="4">
+        <v>45253</v>
+      </c>
+      <c r="K19" s="4">
+        <v>45263</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45263</v>
+      </c>
+      <c r="M19" s="4">
+        <v>45263</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -1210,7 +1322,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="4">
         <v>45021</v>
       </c>
@@ -1249,7 +1361,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -1276,14 +1388,22 @@
       <c r="I22" s="2">
         <v>1500000</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="J22" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1500000</v>
+      </c>
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="4">
         <v>45031</v>
       </c>
@@ -1308,10 +1428,18 @@
       <c r="I23" s="4">
         <v>45236</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="J23" s="4">
+        <v>45263</v>
+      </c>
+      <c r="K23" s="4">
+        <v>45263</v>
+      </c>
+      <c r="L23" s="4">
+        <v>45263</v>
+      </c>
+      <c r="M23" s="4">
+        <v>45263</v>
+      </c>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1373,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,7 +1517,7 @@
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,9 +1531,15 @@
         <v>619900</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2">
+        <f>1542000+1671000</f>
+        <v>3213000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1433,8 +1567,23 @@
         <f t="shared" ref="H2:H12" si="1">G2-C2</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>3387</v>
+      </c>
+      <c r="J2" s="6">
+        <f>I2-C2</f>
+        <v>38</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2*$I$1/$J$13</f>
+        <v>586990.38461538462</v>
+      </c>
+      <c r="L2" s="2">
+        <f>ROUND(K2,-4)</f>
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1449,7 +1598,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
+        <f>D3*(619900)/438</f>
         <v>38213.013698630137</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1462,8 +1611,23 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1980</v>
+      </c>
+      <c r="J3" s="6">
+        <f>I3-C3</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3*$I$1/$J$13</f>
+        <v>123576.92307692308</v>
+      </c>
+      <c r="L3" s="2">
+        <f>ROUND(K3,-4)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1489,8 +1653,23 @@
         <f t="shared" si="1"/>
         <v>-205</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>228</v>
+      </c>
+      <c r="J4" s="6">
+        <f>I4-C4</f>
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <f>J4*$I$1/$J$13</f>
+        <v>355283.65384615387</v>
+      </c>
+      <c r="L4" s="2">
+        <f>ROUND(K4,-4)</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1518,8 +1697,23 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>2389</v>
+      </c>
+      <c r="J5" s="6">
+        <f>I5-C5</f>
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <f>J5*$I$1/$J$13</f>
+        <v>308942.30769230769</v>
+      </c>
+      <c r="L5" s="2">
+        <f>ROUND(K5,-4)</f>
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1534,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f>D6*(619900)/438</f>
         <v>22644.748858447489</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1547,8 +1741,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="6">
+        <v>2168</v>
+      </c>
+      <c r="J6" s="6">
+        <f>I6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>J6*$I$1/$J$13</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f>ROUND(K6,-4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1576,8 +1785,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>2101</v>
+      </c>
+      <c r="J7" s="6">
+        <f>I7-C7</f>
+        <v>17</v>
+      </c>
+      <c r="K7" s="2">
+        <f>J7*$I$1/$J$13</f>
+        <v>262600.96153846156</v>
+      </c>
+      <c r="L7" s="2">
+        <f>ROUND(K7,-4)</f>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1601,8 +1825,26 @@
         <f t="shared" si="1"/>
         <v>-1698</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6">
+        <v>1700</v>
+      </c>
+      <c r="J8" s="6">
+        <f>I8-C8</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <f>J8*$I$1/$J$13</f>
+        <v>30894.23076923077</v>
+      </c>
+      <c r="L8" s="2">
+        <f>ROUND(K8,-4)</f>
+        <v>30000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1630,8 +1872,23 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1572</v>
+      </c>
+      <c r="J9" s="6">
+        <f>I9-C9</f>
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <f>J9*$I$1/$J$13</f>
+        <v>525201.92307692312</v>
+      </c>
+      <c r="L9" s="2">
+        <f>ROUND(K9,-4)</f>
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1659,8 +1916,26 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1527</v>
+      </c>
+      <c r="J10" s="6">
+        <f>I10-C10</f>
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
+        <f>J10*$I$1/$J$13</f>
+        <v>247153.84615384616</v>
+      </c>
+      <c r="L10" s="2">
+        <f>ROUND(K10,-4)</f>
+        <v>250000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1688,8 +1963,23 @@
         <f t="shared" si="1"/>
         <v>-17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>98193</v>
+      </c>
+      <c r="J11" s="6">
+        <f>ABS(I11-C11)</f>
+        <v>37</v>
+      </c>
+      <c r="K11" s="2">
+        <f>J11*$I$1/$J$13</f>
+        <v>571543.26923076925</v>
+      </c>
+      <c r="L11" s="2">
+        <f>ROUND(K11,-4)</f>
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1717,13 +2007,43 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1484</v>
+      </c>
+      <c r="J12" s="6">
+        <f>I12-C12</f>
+        <v>13</v>
+      </c>
+      <c r="K12" s="2">
+        <f>J12*$I$1/$J$13</f>
+        <v>200812.5</v>
+      </c>
+      <c r="L12" s="2">
+        <f>ROUND(K12,-4)</f>
+        <v>200000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="6">
+        <f>SUM(J2:J12)</f>
+        <v>208</v>
+      </c>
+      <c r="K13" s="2">
+        <f>J13*$I$1/$J$13</f>
+        <v>3213000</v>
+      </c>
+      <c r="L13" s="2">
+        <f>ROUND(K13,-4)</f>
+        <v>3210000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
@@ -1859,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5347E886-33BA-4594-AB57-753A37BDBDC8}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,11 +2199,11 @@
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1923,7 +2243,10 @@
         <v>444300000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1957,8 +2280,11 @@
       <c r="K3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1969,37 +2295,42 @@
         <v>45253</v>
       </c>
       <c r="D4" s="2">
-        <f>B4*$F$1/$B$1</f>
+        <f t="shared" ref="D4:D14" si="0">B4*$F$1/$B$1</f>
         <v>68538601.547095403</v>
       </c>
       <c r="E4" s="2">
         <v>40500000</v>
       </c>
       <c r="F4" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" ref="F4:F14" si="1">$J$1/11</f>
         <v>4000000</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>G4*$D$1</f>
+        <f t="shared" ref="H4:H14" si="2">G4*$D$1</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f>B4*$L$1/$B$1+F4+H4</f>
+        <f t="shared" ref="I4:I14" si="3">B4*$L$1/$B$1+F4+H4</f>
         <v>54752834.445624143</v>
       </c>
       <c r="J4" s="2">
-        <f>E4-I4</f>
+        <f t="shared" ref="J4:J14" si="4">E4-I4</f>
         <v>-14252834.445624143</v>
       </c>
       <c r="K4" s="2">
-        <f>ROUND(J4,-5)</f>
+        <f t="shared" ref="K4:K14" si="5">ROUND(J4,-5)</f>
         <v>-14300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M14" si="6">K4+L4</f>
+        <v>-14300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2008,37 +2339,42 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2">
-        <f>B5*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>45252540.57333535</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>G5*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f>B5*$L$1/$B$1+F5+H5</f>
+        <f t="shared" si="3"/>
         <v>37509506.29455483</v>
       </c>
       <c r="J5" s="2">
-        <f>E5-I5</f>
+        <f t="shared" si="4"/>
         <v>-37509506.29455483</v>
       </c>
       <c r="K5" s="2">
-        <f>ROUND(J5,-5)</f>
+        <f t="shared" si="5"/>
         <v>-37500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <f t="shared" si="6"/>
+        <v>-37500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2049,37 +2385,42 @@
         <v>45253</v>
       </c>
       <c r="D6" s="2">
-        <f>B6*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>39769452.44956772</v>
       </c>
       <c r="E6" s="2">
         <v>39800000</v>
       </c>
       <c r="F6" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>G6*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>B6*$L$1/$B$1+F6+H6</f>
+        <f t="shared" si="3"/>
         <v>33449279.538904898</v>
       </c>
       <c r="J6" s="2">
-        <f>E6-I6</f>
+        <f t="shared" si="4"/>
         <v>6350720.4610951021</v>
       </c>
       <c r="K6" s="2">
-        <f>ROUND(J6,-5)</f>
+        <f t="shared" si="5"/>
         <v>6400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <f t="shared" si="6"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2090,37 +2431,47 @@
         <v>45252</v>
       </c>
       <c r="D7" s="2">
-        <f>B7*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>62168208.706203543</v>
       </c>
       <c r="E7" s="2">
         <v>63000000</v>
       </c>
       <c r="F7" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>G7*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f>B7*$L$1/$B$1+F7+H7</f>
+        <f t="shared" si="3"/>
         <v>50035558.546943724</v>
       </c>
       <c r="J7" s="2">
-        <f>E7-I7</f>
+        <f t="shared" si="4"/>
         <v>12964441.453056276</v>
       </c>
       <c r="K7" s="2">
-        <f>ROUND(J7,-5)</f>
+        <f t="shared" si="5"/>
         <v>13000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="6"/>
+        <v>13000000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2131,37 +2482,47 @@
         <v>45254</v>
       </c>
       <c r="D8" s="2">
-        <f>B8*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>60120582.435916878</v>
       </c>
       <c r="E8" s="2">
         <v>60000000</v>
       </c>
       <c r="F8" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>G8*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f>B8*$L$1/$B$1+F8+H8</f>
+        <f t="shared" si="3"/>
         <v>48519291.29379645</v>
       </c>
       <c r="J8" s="2">
-        <f>E8-I8</f>
+        <f t="shared" si="4"/>
         <v>11480708.70620355</v>
       </c>
       <c r="K8" s="2">
-        <f>ROUND(J8,-5)</f>
+        <f t="shared" si="5"/>
         <v>11500000</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="2">
+        <v>-11500000</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2172,37 +2533,42 @@
         <v>45251</v>
       </c>
       <c r="D9" s="2">
-        <f>B9*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>33501440.922190197</v>
       </c>
       <c r="E9" s="2">
         <v>17000000</v>
       </c>
       <c r="F9" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <f>G9*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>B9*$L$1/$B$1+F9+H9</f>
+        <f t="shared" si="3"/>
         <v>28807817.002881844</v>
       </c>
       <c r="J9" s="2">
-        <f>E9-I9</f>
+        <f t="shared" si="4"/>
         <v>-11807817.002881844</v>
       </c>
       <c r="K9" s="2">
-        <f>ROUND(J9,-5)</f>
+        <f t="shared" si="5"/>
         <v>-11800000</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <f t="shared" si="6"/>
+        <v>-11800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2213,37 +2579,48 @@
         <v>45258</v>
       </c>
       <c r="D10" s="2">
-        <f>B10*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>62071515.243440002</v>
       </c>
       <c r="E10" s="2">
         <v>62000000</v>
       </c>
       <c r="F10" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>G10*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f>B10*$L$1/$B$1+F10+H10</f>
+        <f t="shared" si="3"/>
         <v>49963957.037767321</v>
       </c>
       <c r="J10" s="2">
-        <f>E10-I10</f>
+        <f t="shared" si="4"/>
         <v>12036042.962232679</v>
       </c>
       <c r="K10" s="2">
-        <f>ROUND(J10,-5)</f>
+        <f t="shared" si="5"/>
         <v>12000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="2">
+        <f>-4500000-30000</f>
+        <v>-4530000</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="6"/>
+        <v>7470000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2254,37 +2631,47 @@
         <v>45253</v>
       </c>
       <c r="D11" s="2">
-        <f>B11*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>66900500.530866064</v>
       </c>
       <c r="E11" s="2">
         <v>67000000</v>
       </c>
       <c r="F11" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>G11*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>B11*$L$1/$B$1+F11+H11</f>
+        <f t="shared" si="3"/>
         <v>53539820.643106319</v>
       </c>
       <c r="J11" s="2">
-        <f>E11-I11</f>
+        <f t="shared" si="4"/>
         <v>13460179.356893681</v>
       </c>
       <c r="K11" s="2">
-        <f>ROUND(J11,-5)</f>
+        <f t="shared" si="5"/>
         <v>13500000</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L11" s="2">
+        <v>-1500000</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="6"/>
+        <v>12000000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2295,37 +2682,48 @@
         <v>45253</v>
       </c>
       <c r="D12" s="2">
-        <f>B12*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>39769452.44956772</v>
       </c>
       <c r="E12" s="2">
         <v>40000000</v>
       </c>
       <c r="F12" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <f>G12*$D$1</f>
+        <f t="shared" si="2"/>
         <v>2200000</v>
       </c>
       <c r="I12" s="2">
-        <f>B12*$L$1/$B$1+F12+H12</f>
+        <f t="shared" si="3"/>
         <v>35649279.538904898</v>
       </c>
       <c r="J12" s="2">
-        <f>E12-I12</f>
+        <f t="shared" si="4"/>
         <v>4350720.4610951021</v>
       </c>
       <c r="K12" s="2">
-        <f>ROUND(J12,-5)</f>
+        <f t="shared" si="5"/>
         <v>4400000</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="2">
+        <f>3*1500000*-1</f>
+        <v>-4500000</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="6"/>
+        <v>-100000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2336,37 +2734,42 @@
         <v>45254</v>
       </c>
       <c r="D13" s="2">
-        <f>B13*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>61957758.228424087</v>
       </c>
       <c r="E13" s="2">
         <v>60000000</v>
       </c>
       <c r="F13" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f>G13*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>B13*$L$1/$B$1+F13+H13</f>
+        <f t="shared" si="3"/>
         <v>49879719.96814803</v>
       </c>
       <c r="J13" s="2">
-        <f>E13-I13</f>
+        <f t="shared" si="4"/>
         <v>10120280.03185197</v>
       </c>
       <c r="K13" s="2">
-        <f>ROUND(J13,-5)</f>
+        <f t="shared" si="5"/>
         <v>10100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <f t="shared" si="6"/>
+        <v>10100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2377,37 +2780,48 @@
         <v>45249</v>
       </c>
       <c r="D14" s="2">
-        <f>B14*$F$1/$B$1</f>
+        <f t="shared" si="0"/>
         <v>59949946.913392983</v>
       </c>
       <c r="E14" s="2">
         <v>60000000</v>
       </c>
       <c r="F14" s="2">
-        <f>$J$1/11</f>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>G14*$D$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>B14*$L$1/$B$1+F14+H14</f>
+        <f t="shared" si="3"/>
         <v>48392935.689367503</v>
       </c>
       <c r="J14" s="2">
-        <f>E14-I14</f>
+        <f t="shared" si="4"/>
         <v>11607064.310632497</v>
       </c>
       <c r="K14" s="2">
-        <f>ROUND(J14,-5)</f>
+        <f t="shared" si="5"/>
         <v>11600000</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="2">
+        <f>(4*1500000*-1)-(200000)</f>
+        <v>-6200000</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="6"/>
+        <v>5400000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f>SUM(D4:D14)</f>
         <v>600000000</v>
@@ -2433,6 +2847,8 @@
         <f>SUM(K4:K14)</f>
         <v>18900000</v>
       </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
@@ -2446,7 +2862,7 @@
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832DA9D-2C8F-47AE-80FF-BD622DFC9A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E58F54-ACC9-47C9-95D2-771E8FE7EF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,8 +69,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mahdi hajian</author>
+  </authors>
+  <commentList>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{21CEAABB-8A8F-4540-88DA-7D2255AE62FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mahdi hajian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1340100 در تاریخ
+یکم دی ماه ریخته شده که 59 تومن اب و 150 شارژ کم شده است</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{6A5B5A45-E4DA-4DF8-B982-FFBAC1623CE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mahdi hajian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+به جای 25
+35 ریختم در تاریخ 19/9/1402</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>واحد</t>
   </si>
@@ -238,6 +296,21 @@
   </si>
   <si>
     <t>واریز شد پول اب هم کم شد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسویه. در تاریخ 30 آذر با پول آب پرداخت شد </t>
+  </si>
+  <si>
+    <t>واریز شد 19/9</t>
+  </si>
+  <si>
+    <t>چهار هزار تومان هنوز از ایزوگام مانده است</t>
+  </si>
+  <si>
+    <t>با شارژ و آب تسویه شد</t>
+  </si>
+  <si>
+    <t>دو پرداختی 1402/09/26 و 1402/10/01 که پول آب و ایزوگام و بقیش هم شد این</t>
   </si>
 </sst>
 </file>
@@ -250,7 +323,7 @@
     <numFmt numFmtId="166" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +348,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,13 +393,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,6 +697,7 @@
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -685,8 +772,12 @@
       <c r="J2" s="2">
         <v>1500000</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>590000</v>
+      </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -700,11 +791,11 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="4">
         <v>45195</v>
       </c>
@@ -714,8 +805,12 @@
       <c r="J3" s="4">
         <v>45253</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4">
+        <v>45282</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -814,10 +909,18 @@
       <c r="I6" s="2">
         <v>1500000</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="J6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
@@ -845,10 +948,18 @@
       <c r="I7" s="4">
         <v>45244</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="J7" s="4">
+        <v>45253</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45253</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45253</v>
+      </c>
+      <c r="M7" s="4">
+        <v>45253</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -902,16 +1013,16 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="4">
         <v>45223</v>
       </c>
@@ -959,7 +1070,7 @@
       <c r="L10" s="2">
         <v>1500000</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>1000000</v>
       </c>
       <c r="N10" t="s">
@@ -1478,6 +1589,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -1485,13 +1603,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1501,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,9 +1626,10 @@
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1651,7 @@
         <v>3213000</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1571,19 +1683,22 @@
         <v>3387</v>
       </c>
       <c r="J2" s="6">
-        <f>I2-C2</f>
+        <f t="shared" ref="J2:J10" si="2">I2-C2</f>
         <v>38</v>
       </c>
       <c r="K2" s="2">
-        <f>J2*$I$1/$J$13</f>
+        <f t="shared" ref="K2:K13" si="3">J2*$I$1/$J$13</f>
         <v>586990.38461538462</v>
       </c>
       <c r="L2" s="2">
-        <f>ROUND(K2,-4)</f>
+        <f t="shared" ref="L2:L13" si="4">ROUND(K2,-4)</f>
         <v>590000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1615,19 +1730,19 @@
         <v>1980</v>
       </c>
       <c r="J3" s="6">
-        <f>I3-C3</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K3" s="2">
-        <f>J3*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>123576.92307692308</v>
       </c>
       <c r="L3" s="2">
-        <f>ROUND(K3,-4)</f>
+        <f t="shared" si="4"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1657,19 +1772,25 @@
         <v>228</v>
       </c>
       <c r="J4" s="6">
-        <f>I4-C4</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K4" s="2">
-        <f>J4*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>355283.65384615387</v>
       </c>
       <c r="L4" s="2">
-        <f>ROUND(K4,-4)</f>
+        <f t="shared" si="4"/>
         <v>360000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1680,7 +1801,7 @@
         <v>2369</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D10" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D10" si="5">C5-B5</f>
         <v>24</v>
       </c>
       <c r="E5" s="5">
@@ -1701,19 +1822,22 @@
         <v>2389</v>
       </c>
       <c r="J5" s="6">
-        <f>I5-C5</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K5" s="2">
-        <f>J5*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>308942.30769230769</v>
       </c>
       <c r="L5" s="2">
-        <f>ROUND(K5,-4)</f>
+        <f t="shared" si="4"/>
         <v>310000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1724,7 +1848,7 @@
         <v>2168</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E6" s="5">
@@ -1745,19 +1869,19 @@
         <v>2168</v>
       </c>
       <c r="J6" s="6">
-        <f>I6-C6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f>J6*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f>ROUND(K6,-4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1768,7 +1892,7 @@
         <v>2084</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="E7" s="5">
@@ -1789,19 +1913,22 @@
         <v>2101</v>
       </c>
       <c r="J7" s="6">
-        <f>I7-C7</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K7" s="2">
-        <f>J7*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>262600.96153846156</v>
       </c>
       <c r="L7" s="2">
-        <f>ROUND(K7,-4)</f>
+        <f t="shared" si="4"/>
         <v>260000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1812,7 +1939,7 @@
         <v>1698</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E8" s="5">
@@ -1829,22 +1956,22 @@
         <v>1700</v>
       </c>
       <c r="J8" s="6">
-        <f>I8-C8</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K8" s="2">
-        <f>J8*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>30894.23076923077</v>
       </c>
       <c r="L8" s="2">
-        <f>ROUND(K8,-4)</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1855,7 +1982,7 @@
         <v>1538</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="E9" s="5">
@@ -1876,19 +2003,22 @@
         <v>1572</v>
       </c>
       <c r="J9" s="6">
-        <f>I9-C9</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="K9" s="2">
-        <f>J9*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>525201.92307692312</v>
       </c>
       <c r="L9" s="2">
-        <f>ROUND(K9,-4)</f>
+        <f t="shared" si="4"/>
         <v>530000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1899,7 +2029,7 @@
         <v>1511</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="E10" s="5">
@@ -1920,22 +2050,22 @@
         <v>1527</v>
       </c>
       <c r="J10" s="6">
-        <f>I10-C10</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K10" s="2">
-        <f>J10*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>247153.84615384616</v>
       </c>
       <c r="L10" s="2">
-        <f>ROUND(K10,-4)</f>
+        <f t="shared" si="4"/>
         <v>250000</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1971,15 +2101,15 @@
         <v>37</v>
       </c>
       <c r="K11" s="2">
-        <f>J11*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>571543.26923076925</v>
       </c>
       <c r="L11" s="2">
-        <f>ROUND(K11,-4)</f>
+        <f t="shared" si="4"/>
         <v>570000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2015,18 +2145,18 @@
         <v>13</v>
       </c>
       <c r="K12" s="2">
-        <f>J12*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>200812.5</v>
       </c>
       <c r="L12" s="2">
-        <f>ROUND(K12,-4)</f>
+        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
       <c r="M12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2035,17 +2165,20 @@
         <v>208</v>
       </c>
       <c r="K13" s="2">
-        <f>J13*$I$1/$J$13</f>
+        <f t="shared" si="3"/>
         <v>3213000</v>
       </c>
       <c r="L13" s="2">
-        <f>ROUND(K13,-4)</f>
+        <f t="shared" si="4"/>
         <v>3210000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,11 +2311,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5347E886-33BA-4594-AB57-753A37BDBDC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5347E886-33BA-4594-AB57-753A37BDBDC8}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2200,7 +2333,7 @@
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2326,8 +2459,8 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M14" si="6">K4+L4</f>
-        <v>-14300000</v>
+        <f>(K4+L4)+13401000+1489000</f>
+        <v>590000</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2370,7 +2503,7 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M4:M14" si="6">K5+L5</f>
         <v>-37500000</v>
       </c>
     </row>
@@ -2419,6 +2552,9 @@
         <f t="shared" si="6"/>
         <v>6400000</v>
       </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2564,8 +2700,11 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2">
-        <f t="shared" si="6"/>
+        <f>K9+L9</f>
         <v>-11800000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -2768,6 +2907,9 @@
         <f t="shared" si="6"/>
         <v>10100000</v>
       </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2901,5 +3043,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hesab.xlsx
+++ b/hesab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferdos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahdi\Desktop\hesab-ferdos-master\hesab-ferdos-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E58F54-ACC9-47C9-95D2-771E8FE7EF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD9A5D-4934-4F74-8516-26802B98D6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ ها" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>واحد</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>دو پرداختی 1402/09/26 و 1402/10/01 که پول آب و ایزوگام و بقیش هم شد این</t>
+  </si>
+  <si>
+    <t>یکم بهمن پرداخت شد</t>
+  </si>
+  <si>
+    <t>کامل پرداخت نشده - از 500 هزار تومان کم شده</t>
   </si>
 </sst>
 </file>
@@ -394,11 +400,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,25 +688,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,8 +749,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -778,10 +786,12 @@
       <c r="L2" s="2">
         <v>590000</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="M2" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>45011</v>
       </c>
@@ -791,11 +801,11 @@
       <c r="D3" s="4">
         <v>45069</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4">
         <v>45195</v>
       </c>
@@ -811,10 +821,12 @@
       <c r="L3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="M3" s="4">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -844,12 +856,19 @@
       <c r="J4" s="2">
         <v>1500000</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="K4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>45101</v>
       </c>
@@ -877,12 +896,18 @@
       <c r="J5" s="4">
         <v>45264</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="K5" s="4">
+        <v>45312</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45312</v>
+      </c>
+      <c r="M5" s="4">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -922,8 +947,8 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>45034</v>
       </c>
@@ -961,8 +986,8 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -1002,8 +1027,8 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="4">
         <v>45039</v>
       </c>
@@ -1013,16 +1038,16 @@
       <c r="D9" s="4">
         <v>45094</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="4">
         <v>45223</v>
       </c>
@@ -1033,8 +1058,8 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>5</v>
       </c>
       <c r="B10" s="2">
@@ -1077,8 +1102,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="4">
         <v>45081</v>
       </c>
@@ -1116,8 +1141,8 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -1142,8 +1167,8 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="4">
         <v>45046</v>
       </c>
@@ -1171,8 +1196,8 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>7</v>
       </c>
       <c r="B14" s="2">
@@ -1203,8 +1228,8 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="4">
         <v>45102</v>
       </c>
@@ -1236,8 +1261,8 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>8</v>
       </c>
       <c r="B16" s="2">
@@ -1267,9 +1292,15 @@
       <c r="J16" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="K16" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="4">
         <v>45150</v>
       </c>
@@ -1297,16 +1328,20 @@
       <c r="J17" s="4">
         <v>45263</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4">
+        <v>45333</v>
+      </c>
+      <c r="L17" s="4">
+        <v>45333</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>9</v>
       </c>
       <c r="B18" s="2">
@@ -1351,8 +1386,8 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="4">
         <v>45034</v>
       </c>
@@ -1394,8 +1429,8 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -1425,15 +1460,24 @@
       <c r="J20" s="2">
         <v>1500000</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1430000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="4">
         <v>45021</v>
       </c>
@@ -1461,9 +1505,15 @@
       <c r="J21" s="4">
         <v>45253</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="K21" s="4">
+        <v>45304</v>
+      </c>
+      <c r="L21" s="4">
+        <v>45304</v>
+      </c>
+      <c r="M21" s="4">
+        <v>45304</v>
+      </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
@@ -1471,8 +1521,8 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -1513,8 +1563,8 @@
       </c>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="4">
         <v>45031</v>
       </c>
@@ -1553,7 +1603,7 @@
       </c>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1564,7 +1614,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1576,7 +1626,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1589,6 +1639,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E9:H9"/>
@@ -1596,13 +1653,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1614,22 +1664,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4040090-162A-4A1D-ACF4-841B2A0DC6A7}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1702,7 @@
         <v>3213000</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1698,7 +1749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1742,7 +1793,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1790,7 +1841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1836,8 +1887,11 @@
       <c r="M5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1880,8 +1934,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="6">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="M7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1971,7 +2031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2017,8 +2077,11 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2064,8 +2127,11 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2108,8 +2174,14 @@
         <f t="shared" si="4"/>
         <v>570000</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>98138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2155,8 +2227,11 @@
       <c r="M12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2173,11 +2248,11 @@
         <v>3210000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
@@ -2193,15 +2268,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -2215,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45155</v>
       </c>
@@ -2243,7 +2318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44436</v>
       </c>
@@ -2254,7 +2329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
   </sheetData>
@@ -2270,14 +2345,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -2288,7 +2363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45150</v>
       </c>
@@ -2299,10 +2374,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
   </sheetData>
@@ -2315,28 +2390,28 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2376,10 +2451,10 @@
         <v>444300000</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2463,7 +2538,7 @@
         <v>590000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2503,11 +2578,14 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <f t="shared" ref="M4:M14" si="6">K5+L5</f>
+        <f t="shared" ref="M5:M14" si="6">K5+L5</f>
         <v>-37500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2556,7 +2634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2607,7 +2685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2658,7 +2736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2707,7 +2785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2759,7 +2837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2810,7 +2888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2862,7 +2940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2911,7 +2989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2963,7 +3041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <f>SUM(D4:D14)</f>
         <v>600000000</v>
@@ -2992,53 +3070,53 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M18" s="2">
         <f>E15-K15</f>
         <v>490400000</v>
       </c>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
     </row>
   </sheetData>
